--- a/data/input/employee_absence_data_46.xlsx
+++ b/data/input/employee_absence_data_46.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42277</v>
+        <v>20680</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cauã Sá</t>
+          <t>Luana Pereira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45094</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>10084.27</v>
+        <v>5905.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97016</v>
+        <v>13034</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raquel da Cunha</t>
+          <t>Carlos Eduardo Monteiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,80 +511,80 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45081</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>8266.74</v>
+        <v>5609.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96840</v>
+        <v>11878</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ryan Cirino</t>
+          <t>João Pastor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45101</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>7930.41</v>
+        <v>6753.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>34268</v>
+        <v>5517</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Beatriz Peixoto</t>
+          <t>Sofia Aragão</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45088</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>11711.78</v>
+        <v>8322.030000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91599</v>
+        <v>2104</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lunna Brito</t>
+          <t>Srta. Liz Oliveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,31 +594,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45092</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>4713.66</v>
+        <v>5937.87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29206</v>
+        <v>10404</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isabela da Cunha</t>
+          <t>Yasmin Pimenta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,82 +630,82 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45086</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>10749.71</v>
+        <v>9024.440000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88211</v>
+        <v>90840</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Cardoso</t>
+          <t>Lunna Pastor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>8409</v>
+        <v>7459.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33514</v>
+        <v>5940</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bruno Cavalcante</t>
+          <t>Marcela Rodrigues</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45082</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>4017.46</v>
+        <v>8482.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28689</v>
+        <v>84182</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Pedro Macedo</t>
+          <t>Julia Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -717,39 +717,39 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45105</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>8887.42</v>
+        <v>6926.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>53908</v>
+        <v>39573</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dante da Costa</t>
+          <t>Sr. Davi Lucca Peixoto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45090</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>6082.39</v>
+        <v>9961.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_46.xlsx
+++ b/data/input/employee_absence_data_46.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20680</v>
+        <v>19884</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luana Pereira</t>
+          <t>Léo Melo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,172 +482,172 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45081</v>
+        <v>45083</v>
       </c>
       <c r="G2" t="n">
-        <v>5905.27</v>
+        <v>7891.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13034</v>
+        <v>81220</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Monteiro</t>
+          <t>João Pedro Sampaio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>5609.78</v>
+        <v>5732.94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11878</v>
+        <v>15056</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Pastor</t>
+          <t>Srta. Jade da Paz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>6753.75</v>
+        <v>7663.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5517</v>
+        <v>43220</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sofia Aragão</t>
+          <t>Enrico Castro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45106</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>8322.030000000001</v>
+        <v>6839.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2104</v>
+        <v>33882</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Srta. Liz Oliveira</t>
+          <t>Arthur Gabriel Pacheco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45088</v>
+        <v>45100</v>
       </c>
       <c r="G6" t="n">
-        <v>5937.87</v>
+        <v>3301.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10404</v>
+        <v>11435</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yasmin Pimenta</t>
+          <t>Vitor Nogueira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45095</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>9024.440000000001</v>
+        <v>6240.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>90840</v>
+        <v>24780</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lunna Pastor</t>
+          <t>Heloísa Castro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,51 +656,51 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45101</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>7459.1</v>
+        <v>3137.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5940</v>
+        <v>50632</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marcela Rodrigues</t>
+          <t>Clarice Rios</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>8482.65</v>
+        <v>8019.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84182</v>
+        <v>39489</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Julia Caldeira</t>
+          <t>Vinicius Fogaça</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45097</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>6926.72</v>
+        <v>7405.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39573</v>
+        <v>55772</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Davi Lucca Peixoto</t>
+          <t>Caleb Ramos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>9961.4</v>
+        <v>8689.92</v>
       </c>
     </row>
   </sheetData>
